--- a/cahier des charge& etape/gantt_Olympe.xlsx
+++ b/cahier des charge& etape/gantt_Olympe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\L3\L3_s2\projet_de Programmation Mobile\Olympe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\L3\L3_s2\projet_de Programmation Mobile\Olympe\cahier des charge&amp; etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E1F7B-EDF4-498A-8F3B-1F70FB297765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B36D04-5B53-483E-BA32-90DC8213D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2622,24 +2622,6 @@
     <xf numFmtId="14" fontId="46" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2647,9 +2629,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3484,9 +3484,9 @@
   </sheetPr>
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3511,27 +3511,27 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="H1" s="64"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
     </row>
     <row r="2" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -3570,10 +3570,10 @@
       <c r="B4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="98">
         <v>44970</v>
       </c>
-      <c r="D4" s="101"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="51"/>
       <c r="F4" s="52" t="s">
         <v>67</v>
@@ -3583,181 +3583,181 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="29"/>
-      <c r="J4" s="93" t="str">
+      <c r="J4" s="95" t="str">
         <f>"Week "&amp;(J6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="93" t="str">
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="95" t="str">
         <f>"Week "&amp;(Q6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93" t="str">
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="95" t="str">
         <f>"Week "&amp;(X6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="93" t="str">
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="95" t="str">
         <f>"Week "&amp;(AE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="93" t="str">
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="95" t="str">
         <f>"Week "&amp;(AL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="93" t="str">
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="95" t="str">
         <f>"Week "&amp;(AS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="93" t="str">
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="95" t="str">
         <f>"Week "&amp;(AZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="93" t="str">
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="95" t="str">
         <f>"Week "&amp;(BG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="95"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="97"/>
     </row>
     <row r="5" spans="1:65" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="96">
+      <c r="J5" s="99">
         <f>J6</f>
         <v>44970</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="96">
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="99">
         <f>Q6</f>
         <v>44977</v>
       </c>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="96">
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="99">
         <f>X6</f>
         <v>44984</v>
       </c>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="96">
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="99">
         <f>AE6</f>
         <v>44991</v>
       </c>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="96">
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="99">
         <f>AL6</f>
         <v>44998</v>
       </c>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="96">
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="101"/>
+      <c r="AS5" s="99">
         <f>AS6</f>
         <v>45005</v>
       </c>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="96">
+      <c r="AT5" s="100"/>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="100"/>
+      <c r="AW5" s="100"/>
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="101"/>
+      <c r="AZ5" s="99">
         <f>AZ6</f>
         <v>45012</v>
       </c>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="96">
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="101"/>
+      <c r="BG5" s="99">
         <f>BG6</f>
         <v>45019</v>
       </c>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="97"/>
-      <c r="BK5" s="97"/>
-      <c r="BL5" s="97"/>
-      <c r="BM5" s="98"/>
+      <c r="BH5" s="100"/>
+      <c r="BI5" s="100"/>
+      <c r="BJ5" s="100"/>
+      <c r="BK5" s="100"/>
+      <c r="BL5" s="100"/>
+      <c r="BM5" s="101"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -4511,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="36">
         <f t="shared" si="4"/>
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="36">
         <f t="shared" si="4"/>
@@ -5088,15 +5088,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="J1:AD1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="X4:AD4"/>
-    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="BG4:BM4"/>
@@ -5107,6 +5098,15 @@
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="J1:AD1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="X5:AD5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G8:G17">
